--- a/lab19 IT in progress/labovi/lab1/lab1.xlsx
+++ b/lab19 IT in progress/labovi/lab1/lab1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik.DESKTOP-JVOQTMK\Documents\GitHub\RacunarskeMreze-ComputerNetworks-\lab19 IT in progress\labovi\lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik.DESKTOP-JVOQTMK\Documents\GitHub\Computer-Networks-Administration-Lessons\lab19 IT in progress\labovi\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635CF250-34FE-499E-B174-00116F353315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09ED94C-1C2B-4C7D-821B-E49CDE57A48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>enable</t>
   </si>
@@ -199,6 +199,24 @@
   </si>
   <si>
     <t>spanning-tree vlan 1 port-priority 144</t>
+  </si>
+  <si>
+    <t>Znači, bacaš pogled sa Switch5 na Switch4(Koji je root -svi port-ovi su mu zeleni..)</t>
+  </si>
+  <si>
+    <t>i vidiš da oba porta imaju isti prioritet 128, ali gornji port(Fa0/1) IMA NIŽI INDEX</t>
+  </si>
+  <si>
+    <t>te je samim tim on ostao neblokiran.</t>
+  </si>
+  <si>
+    <t>Ako povećamo prioritet od Port-a Fa0/1, onda Spanning-Tree protocol</t>
+  </si>
+  <si>
+    <t>ponovo gleda prioritete portova Fa0/1 i Fa0/2 od Switch4 i vidi da je</t>
+  </si>
+  <si>
+    <t>Fa0/2 nižeg index-a --TE ODLUČUJE DA GA NE BLOKIRA I DAJE MU PRIORITET!!</t>
   </si>
 </sst>
 </file>
@@ -375,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -405,7 +423,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1758,7 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D9:Z445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
       <selection activeCell="Z440" sqref="Z440"/>
     </sheetView>
   </sheetViews>
@@ -7415,14 +7432,14 @@
       <c r="O233" s="5"/>
       <c r="P233" s="5"/>
       <c r="Q233" s="28"/>
-      <c r="R233" s="29"/>
-      <c r="S233" s="29"/>
-      <c r="T233" s="29"/>
-      <c r="U233" s="29"/>
-      <c r="V233" s="29"/>
-      <c r="W233" s="29"/>
-      <c r="X233" s="29"/>
-      <c r="Y233" s="29"/>
+      <c r="R233" s="22"/>
+      <c r="S233" s="22"/>
+      <c r="T233" s="22"/>
+      <c r="U233" s="22"/>
+      <c r="V233" s="22"/>
+      <c r="W233" s="22"/>
+      <c r="X233" s="22"/>
+      <c r="Y233" s="22"/>
       <c r="Z233" s="24"/>
     </row>
     <row r="234" spans="4:26" x14ac:dyDescent="0.25">
@@ -7442,20 +7459,20 @@
       <c r="Q234" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="R234" s="29"/>
-      <c r="S234" s="29" t="s">
+      <c r="R234" s="22"/>
+      <c r="S234" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="T234" s="29" t="s">
+      <c r="T234" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="U234" s="29">
+      <c r="U234" s="22">
         <v>24576</v>
       </c>
-      <c r="V234" s="29"/>
-      <c r="W234" s="29"/>
-      <c r="X234" s="29"/>
-      <c r="Y234" s="29"/>
+      <c r="V234" s="22"/>
+      <c r="W234" s="22"/>
+      <c r="X234" s="22"/>
+      <c r="Y234" s="22"/>
       <c r="Z234" s="24"/>
     </row>
     <row r="235" spans="4:26" x14ac:dyDescent="0.25">
@@ -7473,14 +7490,14 @@
       <c r="O235" s="5"/>
       <c r="P235" s="5"/>
       <c r="Q235" s="28"/>
-      <c r="R235" s="29"/>
-      <c r="S235" s="29"/>
-      <c r="T235" s="29"/>
-      <c r="U235" s="29"/>
-      <c r="V235" s="29"/>
-      <c r="W235" s="29"/>
-      <c r="X235" s="29"/>
-      <c r="Y235" s="29"/>
+      <c r="R235" s="22"/>
+      <c r="S235" s="22"/>
+      <c r="T235" s="22"/>
+      <c r="U235" s="22"/>
+      <c r="V235" s="22"/>
+      <c r="W235" s="22"/>
+      <c r="X235" s="22"/>
+      <c r="Y235" s="22"/>
       <c r="Z235" s="24"/>
     </row>
     <row r="236" spans="4:26" x14ac:dyDescent="0.25">
@@ -7500,14 +7517,14 @@
       <c r="Q236" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="R236" s="29"/>
-      <c r="S236" s="29"/>
-      <c r="T236" s="29"/>
-      <c r="U236" s="29"/>
-      <c r="V236" s="29"/>
-      <c r="W236" s="29"/>
-      <c r="X236" s="29"/>
-      <c r="Y236" s="29"/>
+      <c r="R236" s="22"/>
+      <c r="S236" s="22"/>
+      <c r="T236" s="22"/>
+      <c r="U236" s="22"/>
+      <c r="V236" s="22"/>
+      <c r="W236" s="22"/>
+      <c r="X236" s="22"/>
+      <c r="Y236" s="22"/>
       <c r="Z236" s="24"/>
     </row>
     <row r="237" spans="4:26" x14ac:dyDescent="0.25">
@@ -7527,14 +7544,14 @@
       <c r="Q237" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="R237" s="29"/>
-      <c r="S237" s="29"/>
-      <c r="T237" s="29"/>
-      <c r="U237" s="29"/>
-      <c r="V237" s="29"/>
-      <c r="W237" s="29"/>
-      <c r="X237" s="29"/>
-      <c r="Y237" s="29"/>
+      <c r="R237" s="22"/>
+      <c r="S237" s="22"/>
+      <c r="T237" s="22"/>
+      <c r="U237" s="22"/>
+      <c r="V237" s="22"/>
+      <c r="W237" s="22"/>
+      <c r="X237" s="22"/>
+      <c r="Y237" s="22"/>
       <c r="Z237" s="24"/>
     </row>
     <row r="238" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7551,18 +7568,18 @@
       <c r="N238" s="5"/>
       <c r="O238" s="5"/>
       <c r="P238" s="5"/>
-      <c r="Q238" s="30" t="s">
+      <c r="Q238" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="R238" s="31"/>
-      <c r="S238" s="31"/>
-      <c r="T238" s="31"/>
-      <c r="U238" s="31"/>
-      <c r="V238" s="31"/>
-      <c r="W238" s="31"/>
-      <c r="X238" s="31"/>
-      <c r="Y238" s="31"/>
-      <c r="Z238" s="32"/>
+      <c r="R238" s="30"/>
+      <c r="S238" s="30"/>
+      <c r="T238" s="30"/>
+      <c r="U238" s="30"/>
+      <c r="V238" s="30"/>
+      <c r="W238" s="30"/>
+      <c r="X238" s="30"/>
+      <c r="Y238" s="30"/>
+      <c r="Z238" s="31"/>
     </row>
     <row r="239" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D239" s="4"/>
@@ -12170,7 +12187,9 @@
       <c r="N421" s="13"/>
       <c r="O421" s="13"/>
       <c r="P421" s="13"/>
-      <c r="Q421" s="13"/>
+      <c r="Q421" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="R421" s="13"/>
       <c r="S421" s="13"/>
       <c r="T421" s="13"/>
@@ -12195,7 +12214,9 @@
       <c r="N422" s="13"/>
       <c r="O422" s="13"/>
       <c r="P422" s="13"/>
-      <c r="Q422" s="13"/>
+      <c r="Q422" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="R422" s="13"/>
       <c r="S422" s="13"/>
       <c r="T422" s="13"/>
@@ -12220,7 +12241,9 @@
       <c r="N423" s="13"/>
       <c r="O423" s="13"/>
       <c r="P423" s="13"/>
-      <c r="Q423" s="13"/>
+      <c r="Q423" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="R423" s="13"/>
       <c r="S423" s="13"/>
       <c r="T423" s="13"/>
@@ -12246,7 +12269,9 @@
       <c r="O424" s="13"/>
       <c r="P424" s="13"/>
       <c r="Q424" s="13"/>
-      <c r="R424" s="13"/>
+      <c r="R424" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="S424" s="13"/>
       <c r="T424" s="13"/>
       <c r="U424" s="13"/>
@@ -12271,7 +12296,9 @@
       <c r="O425" s="13"/>
       <c r="P425" s="13"/>
       <c r="Q425" s="13"/>
-      <c r="R425" s="13"/>
+      <c r="R425" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="S425" s="13"/>
       <c r="T425" s="13"/>
       <c r="U425" s="13"/>
@@ -12296,7 +12323,9 @@
       <c r="O426" s="13"/>
       <c r="P426" s="13"/>
       <c r="Q426" s="13"/>
-      <c r="R426" s="13"/>
+      <c r="R426" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="S426" s="13"/>
       <c r="T426" s="13"/>
       <c r="U426" s="13"/>

--- a/lab19 IT in progress/labovi/lab1/lab1.xlsx
+++ b/lab19 IT in progress/labovi/lab1/lab1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik.DESKTOP-JVOQTMK\Documents\GitHub\Computer-Networks-Administration-Lessons\lab19 IT in progress\labovi\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09ED94C-1C2B-4C7D-821B-E49CDE57A48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D9EB98-1A9D-4853-A5DB-0721B3A9FDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>enable</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Cost do root-Switch je 38=2*19 tako da je 19-cost za povezanost preko FastEthernet-Ports!</t>
   </si>
   <si>
-    <t>Idemo dalje, odlučio sam da root prebacim na Switch1!!, Komande:</t>
-  </si>
-  <si>
     <t>Komanda kojom smo realizovali sve ovo prethodno glasi:</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
   </si>
   <si>
     <t>Upitnikom ? Uvijek provjeri koji broj možeš podesiti da ti bude priority!!</t>
-  </si>
-  <si>
-    <t>Navedena komanda predstavlja lakši način za prealizaciju gore-prethodno navedenog!!</t>
   </si>
   <si>
     <t>Sljedeće što se radi u ovoj vježbi, jeste da se port-fo/3 od Switch1 proglasi "brzim" --to je port na koji je povezan PC0.</t>
@@ -216,14 +210,23 @@
     <t>ponovo gleda prioritete portova Fa0/1 i Fa0/2 od Switch4 i vidi da je</t>
   </si>
   <si>
-    <t>Fa0/2 nižeg index-a --TE ODLUČUJE DA GA NE BLOKIRA I DAJE MU PRIORITET!!</t>
+    <t>Navedena komanda predstavlja lakši način za realizaciju gore-prethodno navedenog!!</t>
+  </si>
+  <si>
+    <t>Idemo dalje, odlučio sam da root ulogu prebacim na Switch1!!, Komande:</t>
+  </si>
+  <si>
+    <t>Fa0/2 prioriteta index-a --TE ODLUČUJE DA GA NE BLOKIRA I DAJE MU PRIORITET!!</t>
+  </si>
+  <si>
+    <t>Znači, gleda se prvo niži prioritet, pa ako su prioriteti isti, onda se gleda na index!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +279,16 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -393,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -426,6 +439,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1775,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D9:Z445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="Z440" sqref="Z440"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="Q427" sqref="Q427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5276,7 +5290,7 @@
       <c r="O147" s="5"/>
       <c r="P147" s="5"/>
       <c r="Q147" s="22" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R147" s="5"/>
       <c r="S147" s="5"/>
@@ -7405,7 +7419,7 @@
       <c r="O232" s="5"/>
       <c r="P232" s="5"/>
       <c r="Q232" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R232" s="26"/>
       <c r="S232" s="26"/>
@@ -7457,14 +7471,14 @@
       <c r="O234" s="5"/>
       <c r="P234" s="5"/>
       <c r="Q234" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R234" s="22"/>
       <c r="S234" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T234" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U234" s="22">
         <v>24576</v>
@@ -7515,7 +7529,7 @@
       <c r="O236" s="5"/>
       <c r="P236" s="5"/>
       <c r="Q236" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R236" s="22"/>
       <c r="S236" s="22"/>
@@ -7542,7 +7556,7 @@
       <c r="O237" s="5"/>
       <c r="P237" s="5"/>
       <c r="Q237" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R237" s="22"/>
       <c r="S237" s="22"/>
@@ -7569,7 +7583,7 @@
       <c r="O238" s="5"/>
       <c r="P238" s="5"/>
       <c r="Q238" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R238" s="30"/>
       <c r="S238" s="30"/>
@@ -7671,7 +7685,7 @@
       <c r="O242" s="5"/>
       <c r="P242" s="5"/>
       <c r="Q242" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R242" s="5"/>
       <c r="S242" s="5"/>
@@ -8047,7 +8061,7 @@
       <c r="N257" s="13"/>
       <c r="O257" s="13"/>
       <c r="P257" s="13" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="Q257" s="13"/>
       <c r="R257" s="13"/>
@@ -8237,19 +8251,19 @@
     </row>
     <row r="265" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D265" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E265" s="13"/>
       <c r="F265" s="13"/>
       <c r="G265" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H265" s="13"/>
       <c r="I265" s="13"/>
       <c r="J265" s="13"/>
       <c r="K265" s="13"/>
       <c r="L265" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M265" s="13"/>
       <c r="N265" s="13"/>
@@ -8918,7 +8932,7 @@
     </row>
     <row r="292" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D292" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
@@ -8945,7 +8959,7 @@
     </row>
     <row r="293" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D293" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
@@ -9024,7 +9038,7 @@
     </row>
     <row r="296" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D296" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
@@ -9051,7 +9065,7 @@
     </row>
     <row r="297" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D297" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
@@ -9739,7 +9753,7 @@
       <c r="M324" s="5"/>
       <c r="N324" s="5"/>
       <c r="O324" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P324" s="5"/>
       <c r="Q324" s="5"/>
@@ -9766,7 +9780,7 @@
       <c r="M325" s="5"/>
       <c r="N325" s="5"/>
       <c r="O325" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P325" s="5"/>
       <c r="Q325" s="5"/>
@@ -10519,7 +10533,7 @@
       <c r="N355" s="5"/>
       <c r="O355" s="5"/>
       <c r="P355" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q355" s="5"/>
       <c r="R355" s="5"/>
@@ -12031,7 +12045,7 @@
       <c r="N415" s="13"/>
       <c r="O415" s="13"/>
       <c r="P415" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q415" s="13"/>
       <c r="R415" s="13"/>
@@ -12158,10 +12172,10 @@
       <c r="N420" s="13"/>
       <c r="O420" s="13"/>
       <c r="P420" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q420" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R420" s="13"/>
       <c r="S420" s="13"/>
@@ -12188,7 +12202,7 @@
       <c r="O421" s="13"/>
       <c r="P421" s="13"/>
       <c r="Q421" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R421" s="13"/>
       <c r="S421" s="13"/>
@@ -12215,7 +12229,7 @@
       <c r="O422" s="13"/>
       <c r="P422" s="13"/>
       <c r="Q422" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R422" s="13"/>
       <c r="S422" s="13"/>
@@ -12242,7 +12256,7 @@
       <c r="O423" s="13"/>
       <c r="P423" s="13"/>
       <c r="Q423" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R423" s="13"/>
       <c r="S423" s="13"/>
@@ -12270,7 +12284,7 @@
       <c r="P424" s="13"/>
       <c r="Q424" s="13"/>
       <c r="R424" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S424" s="13"/>
       <c r="T424" s="13"/>
@@ -12297,7 +12311,7 @@
       <c r="P425" s="13"/>
       <c r="Q425" s="13"/>
       <c r="R425" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S425" s="13"/>
       <c r="T425" s="13"/>
@@ -12349,7 +12363,9 @@
       <c r="N427" s="13"/>
       <c r="O427" s="13"/>
       <c r="P427" s="13"/>
-      <c r="Q427" s="13"/>
+      <c r="Q427" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="R427" s="13"/>
       <c r="S427" s="13"/>
       <c r="T427" s="13"/>
@@ -12399,7 +12415,7 @@
       <c r="N429" s="13"/>
       <c r="O429" s="13"/>
       <c r="P429" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q429" s="13"/>
       <c r="R429" s="13"/>

--- a/lab19 IT in progress/labovi/lab1/lab1.xlsx
+++ b/lab19 IT in progress/labovi/lab1/lab1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik.DESKTOP-JVOQTMK\Documents\GitHub\Computer-Networks-Administration-Lessons\lab19 IT in progress\labovi\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D9EB98-1A9D-4853-A5DB-0721B3A9FDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CE8640-86C5-456B-BA94-8E62CFA1F95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -440,6 +440,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1270,7 +1274,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>463</xdr:row>
-      <xdr:rowOff>99061</xdr:rowOff>
+      <xdr:rowOff>89536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1787,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D9:Z445"/>
+  <dimension ref="D9:Z465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="Q427" sqref="Q427"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="Z445" sqref="Z445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12703,10 +12707,533 @@
       <c r="Y440" s="16"/>
       <c r="Z440" s="17"/>
     </row>
+    <row r="444" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="445" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D445" t="s">
+      <c r="D445" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E445" s="2"/>
+      <c r="F445" s="2"/>
+      <c r="G445" s="2"/>
+      <c r="H445" s="2"/>
+      <c r="I445" s="2"/>
+      <c r="J445" s="2"/>
+      <c r="K445" s="2"/>
+      <c r="L445" s="2"/>
+      <c r="M445" s="2"/>
+      <c r="N445" s="2"/>
+      <c r="O445" s="2"/>
+      <c r="P445" s="2"/>
+      <c r="Q445" s="2"/>
+      <c r="R445" s="2"/>
+      <c r="S445" s="2"/>
+      <c r="T445" s="2"/>
+      <c r="U445" s="2"/>
+      <c r="V445" s="2"/>
+      <c r="W445" s="2"/>
+      <c r="X445" s="2"/>
+      <c r="Y445" s="2"/>
+      <c r="Z445" s="3"/>
+    </row>
+    <row r="446" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D446" s="4"/>
+      <c r="E446" s="33"/>
+      <c r="F446" s="33"/>
+      <c r="G446" s="33"/>
+      <c r="H446" s="33"/>
+      <c r="I446" s="33"/>
+      <c r="J446" s="33"/>
+      <c r="K446" s="33"/>
+      <c r="L446" s="33"/>
+      <c r="M446" s="33"/>
+      <c r="N446" s="33"/>
+      <c r="O446" s="33"/>
+      <c r="P446" s="33"/>
+      <c r="Q446" s="33"/>
+      <c r="R446" s="33"/>
+      <c r="S446" s="33"/>
+      <c r="T446" s="33"/>
+      <c r="U446" s="33"/>
+      <c r="V446" s="33"/>
+      <c r="W446" s="33"/>
+      <c r="X446" s="33"/>
+      <c r="Y446" s="33"/>
+      <c r="Z446" s="6"/>
+    </row>
+    <row r="447" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D447" s="4"/>
+      <c r="E447" s="33"/>
+      <c r="F447" s="33"/>
+      <c r="G447" s="33"/>
+      <c r="H447" s="33"/>
+      <c r="I447" s="33"/>
+      <c r="J447" s="33"/>
+      <c r="K447" s="33"/>
+      <c r="L447" s="33"/>
+      <c r="M447" s="33"/>
+      <c r="N447" s="33"/>
+      <c r="O447" s="33"/>
+      <c r="P447" s="33"/>
+      <c r="Q447" s="33"/>
+      <c r="R447" s="33"/>
+      <c r="S447" s="33"/>
+      <c r="T447" s="33"/>
+      <c r="U447" s="33"/>
+      <c r="V447" s="33"/>
+      <c r="W447" s="33"/>
+      <c r="X447" s="33"/>
+      <c r="Y447" s="33"/>
+      <c r="Z447" s="6"/>
+    </row>
+    <row r="448" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D448" s="4"/>
+      <c r="E448" s="33"/>
+      <c r="F448" s="33"/>
+      <c r="G448" s="33"/>
+      <c r="H448" s="33"/>
+      <c r="I448" s="33"/>
+      <c r="J448" s="33"/>
+      <c r="K448" s="33"/>
+      <c r="L448" s="33"/>
+      <c r="M448" s="33"/>
+      <c r="N448" s="33"/>
+      <c r="O448" s="33"/>
+      <c r="P448" s="33"/>
+      <c r="Q448" s="33"/>
+      <c r="R448" s="33"/>
+      <c r="S448" s="33"/>
+      <c r="T448" s="33"/>
+      <c r="U448" s="33"/>
+      <c r="V448" s="33"/>
+      <c r="W448" s="33"/>
+      <c r="X448" s="33"/>
+      <c r="Y448" s="33"/>
+      <c r="Z448" s="6"/>
+    </row>
+    <row r="449" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D449" s="4"/>
+      <c r="E449" s="33"/>
+      <c r="F449" s="33"/>
+      <c r="G449" s="33"/>
+      <c r="H449" s="33"/>
+      <c r="I449" s="33"/>
+      <c r="J449" s="33"/>
+      <c r="K449" s="33"/>
+      <c r="L449" s="33"/>
+      <c r="M449" s="33"/>
+      <c r="N449" s="33"/>
+      <c r="O449" s="33"/>
+      <c r="P449" s="33"/>
+      <c r="Q449" s="33"/>
+      <c r="R449" s="33"/>
+      <c r="S449" s="33"/>
+      <c r="T449" s="33"/>
+      <c r="U449" s="33"/>
+      <c r="V449" s="33"/>
+      <c r="W449" s="33"/>
+      <c r="X449" s="33"/>
+      <c r="Y449" s="33"/>
+      <c r="Z449" s="6"/>
+    </row>
+    <row r="450" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D450" s="4"/>
+      <c r="E450" s="33"/>
+      <c r="F450" s="33"/>
+      <c r="G450" s="33"/>
+      <c r="H450" s="33"/>
+      <c r="I450" s="33"/>
+      <c r="J450" s="33"/>
+      <c r="K450" s="33"/>
+      <c r="L450" s="33"/>
+      <c r="M450" s="33"/>
+      <c r="N450" s="33"/>
+      <c r="O450" s="33"/>
+      <c r="P450" s="33"/>
+      <c r="Q450" s="33"/>
+      <c r="R450" s="33"/>
+      <c r="S450" s="33"/>
+      <c r="T450" s="33"/>
+      <c r="U450" s="33"/>
+      <c r="V450" s="33"/>
+      <c r="W450" s="33"/>
+      <c r="X450" s="33"/>
+      <c r="Y450" s="33"/>
+      <c r="Z450" s="6"/>
+    </row>
+    <row r="451" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D451" s="4"/>
+      <c r="E451" s="33"/>
+      <c r="F451" s="33"/>
+      <c r="G451" s="33"/>
+      <c r="H451" s="33"/>
+      <c r="I451" s="33"/>
+      <c r="J451" s="33"/>
+      <c r="K451" s="33"/>
+      <c r="L451" s="33"/>
+      <c r="M451" s="33"/>
+      <c r="N451" s="33"/>
+      <c r="O451" s="33"/>
+      <c r="P451" s="33"/>
+      <c r="Q451" s="33"/>
+      <c r="R451" s="33"/>
+      <c r="S451" s="33"/>
+      <c r="T451" s="33"/>
+      <c r="U451" s="33"/>
+      <c r="V451" s="33"/>
+      <c r="W451" s="33"/>
+      <c r="X451" s="33"/>
+      <c r="Y451" s="33"/>
+      <c r="Z451" s="6"/>
+    </row>
+    <row r="452" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D452" s="4"/>
+      <c r="E452" s="33"/>
+      <c r="F452" s="33"/>
+      <c r="G452" s="33"/>
+      <c r="H452" s="33"/>
+      <c r="I452" s="33"/>
+      <c r="J452" s="33"/>
+      <c r="K452" s="33"/>
+      <c r="L452" s="33"/>
+      <c r="M452" s="33"/>
+      <c r="N452" s="33"/>
+      <c r="O452" s="33"/>
+      <c r="P452" s="33"/>
+      <c r="Q452" s="33"/>
+      <c r="R452" s="33"/>
+      <c r="S452" s="33"/>
+      <c r="T452" s="33"/>
+      <c r="U452" s="33"/>
+      <c r="V452" s="33"/>
+      <c r="W452" s="33"/>
+      <c r="X452" s="33"/>
+      <c r="Y452" s="33"/>
+      <c r="Z452" s="6"/>
+    </row>
+    <row r="453" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D453" s="4"/>
+      <c r="E453" s="33"/>
+      <c r="F453" s="33"/>
+      <c r="G453" s="33"/>
+      <c r="H453" s="33"/>
+      <c r="I453" s="33"/>
+      <c r="J453" s="33"/>
+      <c r="K453" s="33"/>
+      <c r="L453" s="33"/>
+      <c r="M453" s="33"/>
+      <c r="N453" s="33"/>
+      <c r="O453" s="33"/>
+      <c r="P453" s="33"/>
+      <c r="Q453" s="33"/>
+      <c r="R453" s="33"/>
+      <c r="S453" s="33"/>
+      <c r="T453" s="33"/>
+      <c r="U453" s="33"/>
+      <c r="V453" s="33"/>
+      <c r="W453" s="33"/>
+      <c r="X453" s="33"/>
+      <c r="Y453" s="33"/>
+      <c r="Z453" s="6"/>
+    </row>
+    <row r="454" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D454" s="4"/>
+      <c r="E454" s="33"/>
+      <c r="F454" s="33"/>
+      <c r="G454" s="33"/>
+      <c r="H454" s="33"/>
+      <c r="I454" s="33"/>
+      <c r="J454" s="33"/>
+      <c r="K454" s="33"/>
+      <c r="L454" s="33"/>
+      <c r="M454" s="33"/>
+      <c r="N454" s="33"/>
+      <c r="O454" s="33"/>
+      <c r="P454" s="33"/>
+      <c r="Q454" s="33"/>
+      <c r="R454" s="33"/>
+      <c r="S454" s="33"/>
+      <c r="T454" s="33"/>
+      <c r="U454" s="33"/>
+      <c r="V454" s="33"/>
+      <c r="W454" s="33"/>
+      <c r="X454" s="33"/>
+      <c r="Y454" s="33"/>
+      <c r="Z454" s="6"/>
+    </row>
+    <row r="455" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D455" s="4"/>
+      <c r="E455" s="33"/>
+      <c r="F455" s="33"/>
+      <c r="G455" s="33"/>
+      <c r="H455" s="33"/>
+      <c r="I455" s="33"/>
+      <c r="J455" s="33"/>
+      <c r="K455" s="33"/>
+      <c r="L455" s="33"/>
+      <c r="M455" s="33"/>
+      <c r="N455" s="33"/>
+      <c r="O455" s="33"/>
+      <c r="P455" s="33"/>
+      <c r="Q455" s="33"/>
+      <c r="R455" s="33"/>
+      <c r="S455" s="33"/>
+      <c r="T455" s="33"/>
+      <c r="U455" s="33"/>
+      <c r="V455" s="33"/>
+      <c r="W455" s="33"/>
+      <c r="X455" s="33"/>
+      <c r="Y455" s="33"/>
+      <c r="Z455" s="6"/>
+    </row>
+    <row r="456" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D456" s="4"/>
+      <c r="E456" s="33"/>
+      <c r="F456" s="33"/>
+      <c r="G456" s="33"/>
+      <c r="H456" s="33"/>
+      <c r="I456" s="33"/>
+      <c r="J456" s="33"/>
+      <c r="K456" s="33"/>
+      <c r="L456" s="33"/>
+      <c r="M456" s="33"/>
+      <c r="N456" s="33"/>
+      <c r="O456" s="33"/>
+      <c r="P456" s="33"/>
+      <c r="Q456" s="33"/>
+      <c r="R456" s="33"/>
+      <c r="S456" s="33"/>
+      <c r="T456" s="33"/>
+      <c r="U456" s="33"/>
+      <c r="V456" s="33"/>
+      <c r="W456" s="33"/>
+      <c r="X456" s="33"/>
+      <c r="Y456" s="33"/>
+      <c r="Z456" s="6"/>
+    </row>
+    <row r="457" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D457" s="4"/>
+      <c r="E457" s="33"/>
+      <c r="F457" s="33"/>
+      <c r="G457" s="33"/>
+      <c r="H457" s="33"/>
+      <c r="I457" s="33"/>
+      <c r="J457" s="33"/>
+      <c r="K457" s="33"/>
+      <c r="L457" s="33"/>
+      <c r="M457" s="33"/>
+      <c r="N457" s="33"/>
+      <c r="O457" s="33"/>
+      <c r="P457" s="33"/>
+      <c r="Q457" s="33"/>
+      <c r="R457" s="33"/>
+      <c r="S457" s="33"/>
+      <c r="T457" s="33"/>
+      <c r="U457" s="33"/>
+      <c r="V457" s="33"/>
+      <c r="W457" s="33"/>
+      <c r="X457" s="33"/>
+      <c r="Y457" s="33"/>
+      <c r="Z457" s="6"/>
+    </row>
+    <row r="458" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D458" s="4"/>
+      <c r="E458" s="33"/>
+      <c r="F458" s="33"/>
+      <c r="G458" s="33"/>
+      <c r="H458" s="33"/>
+      <c r="I458" s="33"/>
+      <c r="J458" s="33"/>
+      <c r="K458" s="33"/>
+      <c r="L458" s="33"/>
+      <c r="M458" s="33"/>
+      <c r="N458" s="33"/>
+      <c r="O458" s="33"/>
+      <c r="P458" s="33"/>
+      <c r="Q458" s="33"/>
+      <c r="R458" s="33"/>
+      <c r="S458" s="33"/>
+      <c r="T458" s="33"/>
+      <c r="U458" s="33"/>
+      <c r="V458" s="33"/>
+      <c r="W458" s="33"/>
+      <c r="X458" s="33"/>
+      <c r="Y458" s="33"/>
+      <c r="Z458" s="6"/>
+    </row>
+    <row r="459" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D459" s="4"/>
+      <c r="E459" s="33"/>
+      <c r="F459" s="33"/>
+      <c r="G459" s="33"/>
+      <c r="H459" s="33"/>
+      <c r="I459" s="33"/>
+      <c r="J459" s="33"/>
+      <c r="K459" s="33"/>
+      <c r="L459" s="33"/>
+      <c r="M459" s="33"/>
+      <c r="N459" s="33"/>
+      <c r="O459" s="33"/>
+      <c r="P459" s="33"/>
+      <c r="Q459" s="33"/>
+      <c r="R459" s="33"/>
+      <c r="S459" s="33"/>
+      <c r="T459" s="33"/>
+      <c r="U459" s="33"/>
+      <c r="V459" s="33"/>
+      <c r="W459" s="33"/>
+      <c r="X459" s="33"/>
+      <c r="Y459" s="33"/>
+      <c r="Z459" s="6"/>
+    </row>
+    <row r="460" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D460" s="4"/>
+      <c r="E460" s="33"/>
+      <c r="F460" s="33"/>
+      <c r="G460" s="33"/>
+      <c r="H460" s="33"/>
+      <c r="I460" s="33"/>
+      <c r="J460" s="33"/>
+      <c r="K460" s="33"/>
+      <c r="L460" s="33"/>
+      <c r="M460" s="33"/>
+      <c r="N460" s="33"/>
+      <c r="O460" s="33"/>
+      <c r="P460" s="33"/>
+      <c r="Q460" s="33"/>
+      <c r="R460" s="33"/>
+      <c r="S460" s="33"/>
+      <c r="T460" s="33"/>
+      <c r="U460" s="33"/>
+      <c r="V460" s="33"/>
+      <c r="W460" s="33"/>
+      <c r="X460" s="33"/>
+      <c r="Y460" s="33"/>
+      <c r="Z460" s="6"/>
+    </row>
+    <row r="461" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D461" s="4"/>
+      <c r="E461" s="33"/>
+      <c r="F461" s="33"/>
+      <c r="G461" s="33"/>
+      <c r="H461" s="33"/>
+      <c r="I461" s="33"/>
+      <c r="J461" s="33"/>
+      <c r="K461" s="33"/>
+      <c r="L461" s="33"/>
+      <c r="M461" s="33"/>
+      <c r="N461" s="33"/>
+      <c r="O461" s="33"/>
+      <c r="P461" s="33"/>
+      <c r="Q461" s="33"/>
+      <c r="R461" s="33"/>
+      <c r="S461" s="33"/>
+      <c r="T461" s="33"/>
+      <c r="U461" s="33"/>
+      <c r="V461" s="33"/>
+      <c r="W461" s="33"/>
+      <c r="X461" s="33"/>
+      <c r="Y461" s="33"/>
+      <c r="Z461" s="6"/>
+    </row>
+    <row r="462" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D462" s="4"/>
+      <c r="E462" s="33"/>
+      <c r="F462" s="33"/>
+      <c r="G462" s="33"/>
+      <c r="H462" s="33"/>
+      <c r="I462" s="33"/>
+      <c r="J462" s="33"/>
+      <c r="K462" s="33"/>
+      <c r="L462" s="33"/>
+      <c r="M462" s="33"/>
+      <c r="N462" s="33"/>
+      <c r="O462" s="33"/>
+      <c r="P462" s="33"/>
+      <c r="Q462" s="33"/>
+      <c r="R462" s="33"/>
+      <c r="S462" s="33"/>
+      <c r="T462" s="33"/>
+      <c r="U462" s="33"/>
+      <c r="V462" s="33"/>
+      <c r="W462" s="33"/>
+      <c r="X462" s="33"/>
+      <c r="Y462" s="33"/>
+      <c r="Z462" s="6"/>
+    </row>
+    <row r="463" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D463" s="4"/>
+      <c r="E463" s="33"/>
+      <c r="F463" s="33"/>
+      <c r="G463" s="33"/>
+      <c r="H463" s="33"/>
+      <c r="I463" s="33"/>
+      <c r="J463" s="33"/>
+      <c r="K463" s="33"/>
+      <c r="L463" s="33"/>
+      <c r="M463" s="33"/>
+      <c r="N463" s="33"/>
+      <c r="O463" s="33"/>
+      <c r="P463" s="33"/>
+      <c r="Q463" s="33"/>
+      <c r="R463" s="33"/>
+      <c r="S463" s="33"/>
+      <c r="T463" s="33"/>
+      <c r="U463" s="33"/>
+      <c r="V463" s="33"/>
+      <c r="W463" s="33"/>
+      <c r="X463" s="33"/>
+      <c r="Y463" s="33"/>
+      <c r="Z463" s="6"/>
+    </row>
+    <row r="464" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D464" s="4"/>
+      <c r="E464" s="33"/>
+      <c r="F464" s="33"/>
+      <c r="G464" s="33"/>
+      <c r="H464" s="33"/>
+      <c r="I464" s="33"/>
+      <c r="J464" s="33"/>
+      <c r="K464" s="33"/>
+      <c r="L464" s="33"/>
+      <c r="M464" s="33"/>
+      <c r="N464" s="33"/>
+      <c r="O464" s="33"/>
+      <c r="P464" s="33"/>
+      <c r="Q464" s="33"/>
+      <c r="R464" s="33"/>
+      <c r="S464" s="33"/>
+      <c r="T464" s="33"/>
+      <c r="U464" s="33"/>
+      <c r="V464" s="33"/>
+      <c r="W464" s="33"/>
+      <c r="X464" s="33"/>
+      <c r="Y464" s="33"/>
+      <c r="Z464" s="6"/>
+    </row>
+    <row r="465" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D465" s="34"/>
+      <c r="E465" s="35"/>
+      <c r="F465" s="35"/>
+      <c r="G465" s="35"/>
+      <c r="H465" s="35"/>
+      <c r="I465" s="35"/>
+      <c r="J465" s="35"/>
+      <c r="K465" s="35"/>
+      <c r="L465" s="35"/>
+      <c r="M465" s="35"/>
+      <c r="N465" s="35"/>
+      <c r="O465" s="35"/>
+      <c r="P465" s="35"/>
+      <c r="Q465" s="35"/>
+      <c r="R465" s="35"/>
+      <c r="S465" s="35"/>
+      <c r="T465" s="35"/>
+      <c r="U465" s="35"/>
+      <c r="V465" s="35"/>
+      <c r="W465" s="35"/>
+      <c r="X465" s="35"/>
+      <c r="Y465" s="35"/>
+      <c r="Z465" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab19 IT in progress/labovi/lab1/lab1.xlsx
+++ b/lab19 IT in progress/labovi/lab1/lab1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik.DESKTOP-JVOQTMK\Documents\GitHub\Computer-Networks-Administration-Lessons\lab19 IT in progress\labovi\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CE8640-86C5-456B-BA94-8E62CFA1F95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B49FF94-2323-4AB2-A461-CE166FF6EE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -440,7 +440,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1266,15 +1265,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28376</xdr:colOff>
-      <xdr:row>443</xdr:row>
-      <xdr:rowOff>160021</xdr:rowOff>
+      <xdr:colOff>37901</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>93346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>463</xdr:row>
-      <xdr:rowOff>89536</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>32386</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1303,8 +1302,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1247576" y="81191101"/>
-          <a:ext cx="7591624" cy="3596640"/>
+          <a:off x="3085901" y="84722971"/>
+          <a:ext cx="7591624" cy="3749040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12737,503 +12736,503 @@
     </row>
     <row r="446" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D446" s="4"/>
-      <c r="E446" s="33"/>
-      <c r="F446" s="33"/>
-      <c r="G446" s="33"/>
-      <c r="H446" s="33"/>
-      <c r="I446" s="33"/>
-      <c r="J446" s="33"/>
-      <c r="K446" s="33"/>
-      <c r="L446" s="33"/>
-      <c r="M446" s="33"/>
-      <c r="N446" s="33"/>
-      <c r="O446" s="33"/>
-      <c r="P446" s="33"/>
-      <c r="Q446" s="33"/>
-      <c r="R446" s="33"/>
-      <c r="S446" s="33"/>
-      <c r="T446" s="33"/>
-      <c r="U446" s="33"/>
-      <c r="V446" s="33"/>
-      <c r="W446" s="33"/>
-      <c r="X446" s="33"/>
-      <c r="Y446" s="33"/>
+      <c r="E446" s="5"/>
+      <c r="F446" s="5"/>
+      <c r="G446" s="5"/>
+      <c r="H446" s="5"/>
+      <c r="I446" s="5"/>
+      <c r="J446" s="5"/>
+      <c r="K446" s="5"/>
+      <c r="L446" s="5"/>
+      <c r="M446" s="5"/>
+      <c r="N446" s="5"/>
+      <c r="O446" s="5"/>
+      <c r="P446" s="5"/>
+      <c r="Q446" s="5"/>
+      <c r="R446" s="5"/>
+      <c r="S446" s="5"/>
+      <c r="T446" s="5"/>
+      <c r="U446" s="5"/>
+      <c r="V446" s="5"/>
+      <c r="W446" s="5"/>
+      <c r="X446" s="5"/>
+      <c r="Y446" s="5"/>
       <c r="Z446" s="6"/>
     </row>
     <row r="447" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D447" s="4"/>
-      <c r="E447" s="33"/>
-      <c r="F447" s="33"/>
-      <c r="G447" s="33"/>
-      <c r="H447" s="33"/>
-      <c r="I447" s="33"/>
-      <c r="J447" s="33"/>
-      <c r="K447" s="33"/>
-      <c r="L447" s="33"/>
-      <c r="M447" s="33"/>
-      <c r="N447" s="33"/>
-      <c r="O447" s="33"/>
-      <c r="P447" s="33"/>
-      <c r="Q447" s="33"/>
-      <c r="R447" s="33"/>
-      <c r="S447" s="33"/>
-      <c r="T447" s="33"/>
-      <c r="U447" s="33"/>
-      <c r="V447" s="33"/>
-      <c r="W447" s="33"/>
-      <c r="X447" s="33"/>
-      <c r="Y447" s="33"/>
+      <c r="E447" s="5"/>
+      <c r="F447" s="5"/>
+      <c r="G447" s="5"/>
+      <c r="H447" s="5"/>
+      <c r="I447" s="5"/>
+      <c r="J447" s="5"/>
+      <c r="K447" s="5"/>
+      <c r="L447" s="5"/>
+      <c r="M447" s="5"/>
+      <c r="N447" s="5"/>
+      <c r="O447" s="5"/>
+      <c r="P447" s="5"/>
+      <c r="Q447" s="5"/>
+      <c r="R447" s="5"/>
+      <c r="S447" s="5"/>
+      <c r="T447" s="5"/>
+      <c r="U447" s="5"/>
+      <c r="V447" s="5"/>
+      <c r="W447" s="5"/>
+      <c r="X447" s="5"/>
+      <c r="Y447" s="5"/>
       <c r="Z447" s="6"/>
     </row>
     <row r="448" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D448" s="4"/>
-      <c r="E448" s="33"/>
-      <c r="F448" s="33"/>
-      <c r="G448" s="33"/>
-      <c r="H448" s="33"/>
-      <c r="I448" s="33"/>
-      <c r="J448" s="33"/>
-      <c r="K448" s="33"/>
-      <c r="L448" s="33"/>
-      <c r="M448" s="33"/>
-      <c r="N448" s="33"/>
-      <c r="O448" s="33"/>
-      <c r="P448" s="33"/>
-      <c r="Q448" s="33"/>
-      <c r="R448" s="33"/>
-      <c r="S448" s="33"/>
-      <c r="T448" s="33"/>
-      <c r="U448" s="33"/>
-      <c r="V448" s="33"/>
-      <c r="W448" s="33"/>
-      <c r="X448" s="33"/>
-      <c r="Y448" s="33"/>
+      <c r="E448" s="5"/>
+      <c r="F448" s="5"/>
+      <c r="G448" s="5"/>
+      <c r="H448" s="5"/>
+      <c r="I448" s="5"/>
+      <c r="J448" s="5"/>
+      <c r="K448" s="5"/>
+      <c r="L448" s="5"/>
+      <c r="M448" s="5"/>
+      <c r="N448" s="5"/>
+      <c r="O448" s="5"/>
+      <c r="P448" s="5"/>
+      <c r="Q448" s="5"/>
+      <c r="R448" s="5"/>
+      <c r="S448" s="5"/>
+      <c r="T448" s="5"/>
+      <c r="U448" s="5"/>
+      <c r="V448" s="5"/>
+      <c r="W448" s="5"/>
+      <c r="X448" s="5"/>
+      <c r="Y448" s="5"/>
       <c r="Z448" s="6"/>
     </row>
     <row r="449" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D449" s="4"/>
-      <c r="E449" s="33"/>
-      <c r="F449" s="33"/>
-      <c r="G449" s="33"/>
-      <c r="H449" s="33"/>
-      <c r="I449" s="33"/>
-      <c r="J449" s="33"/>
-      <c r="K449" s="33"/>
-      <c r="L449" s="33"/>
-      <c r="M449" s="33"/>
-      <c r="N449" s="33"/>
-      <c r="O449" s="33"/>
-      <c r="P449" s="33"/>
-      <c r="Q449" s="33"/>
-      <c r="R449" s="33"/>
-      <c r="S449" s="33"/>
-      <c r="T449" s="33"/>
-      <c r="U449" s="33"/>
-      <c r="V449" s="33"/>
-      <c r="W449" s="33"/>
-      <c r="X449" s="33"/>
-      <c r="Y449" s="33"/>
+      <c r="E449" s="5"/>
+      <c r="F449" s="5"/>
+      <c r="G449" s="5"/>
+      <c r="H449" s="5"/>
+      <c r="I449" s="5"/>
+      <c r="J449" s="5"/>
+      <c r="K449" s="5"/>
+      <c r="L449" s="5"/>
+      <c r="M449" s="5"/>
+      <c r="N449" s="5"/>
+      <c r="O449" s="5"/>
+      <c r="P449" s="5"/>
+      <c r="Q449" s="5"/>
+      <c r="R449" s="5"/>
+      <c r="S449" s="5"/>
+      <c r="T449" s="5"/>
+      <c r="U449" s="5"/>
+      <c r="V449" s="5"/>
+      <c r="W449" s="5"/>
+      <c r="X449" s="5"/>
+      <c r="Y449" s="5"/>
       <c r="Z449" s="6"/>
     </row>
     <row r="450" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D450" s="4"/>
-      <c r="E450" s="33"/>
-      <c r="F450" s="33"/>
-      <c r="G450" s="33"/>
-      <c r="H450" s="33"/>
-      <c r="I450" s="33"/>
-      <c r="J450" s="33"/>
-      <c r="K450" s="33"/>
-      <c r="L450" s="33"/>
-      <c r="M450" s="33"/>
-      <c r="N450" s="33"/>
-      <c r="O450" s="33"/>
-      <c r="P450" s="33"/>
-      <c r="Q450" s="33"/>
-      <c r="R450" s="33"/>
-      <c r="S450" s="33"/>
-      <c r="T450" s="33"/>
-      <c r="U450" s="33"/>
-      <c r="V450" s="33"/>
-      <c r="W450" s="33"/>
-      <c r="X450" s="33"/>
-      <c r="Y450" s="33"/>
+      <c r="E450" s="5"/>
+      <c r="F450" s="5"/>
+      <c r="G450" s="5"/>
+      <c r="H450" s="5"/>
+      <c r="I450" s="5"/>
+      <c r="J450" s="5"/>
+      <c r="K450" s="5"/>
+      <c r="L450" s="5"/>
+      <c r="M450" s="5"/>
+      <c r="N450" s="5"/>
+      <c r="O450" s="5"/>
+      <c r="P450" s="5"/>
+      <c r="Q450" s="5"/>
+      <c r="R450" s="5"/>
+      <c r="S450" s="5"/>
+      <c r="T450" s="5"/>
+      <c r="U450" s="5"/>
+      <c r="V450" s="5"/>
+      <c r="W450" s="5"/>
+      <c r="X450" s="5"/>
+      <c r="Y450" s="5"/>
       <c r="Z450" s="6"/>
     </row>
     <row r="451" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D451" s="4"/>
-      <c r="E451" s="33"/>
-      <c r="F451" s="33"/>
-      <c r="G451" s="33"/>
-      <c r="H451" s="33"/>
-      <c r="I451" s="33"/>
-      <c r="J451" s="33"/>
-      <c r="K451" s="33"/>
-      <c r="L451" s="33"/>
-      <c r="M451" s="33"/>
-      <c r="N451" s="33"/>
-      <c r="O451" s="33"/>
-      <c r="P451" s="33"/>
-      <c r="Q451" s="33"/>
-      <c r="R451" s="33"/>
-      <c r="S451" s="33"/>
-      <c r="T451" s="33"/>
-      <c r="U451" s="33"/>
-      <c r="V451" s="33"/>
-      <c r="W451" s="33"/>
-      <c r="X451" s="33"/>
-      <c r="Y451" s="33"/>
+      <c r="E451" s="5"/>
+      <c r="F451" s="5"/>
+      <c r="G451" s="5"/>
+      <c r="H451" s="5"/>
+      <c r="I451" s="5"/>
+      <c r="J451" s="5"/>
+      <c r="K451" s="5"/>
+      <c r="L451" s="5"/>
+      <c r="M451" s="5"/>
+      <c r="N451" s="5"/>
+      <c r="O451" s="5"/>
+      <c r="P451" s="5"/>
+      <c r="Q451" s="5"/>
+      <c r="R451" s="5"/>
+      <c r="S451" s="5"/>
+      <c r="T451" s="5"/>
+      <c r="U451" s="5"/>
+      <c r="V451" s="5"/>
+      <c r="W451" s="5"/>
+      <c r="X451" s="5"/>
+      <c r="Y451" s="5"/>
       <c r="Z451" s="6"/>
     </row>
     <row r="452" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D452" s="4"/>
-      <c r="E452" s="33"/>
-      <c r="F452" s="33"/>
-      <c r="G452" s="33"/>
-      <c r="H452" s="33"/>
-      <c r="I452" s="33"/>
-      <c r="J452" s="33"/>
-      <c r="K452" s="33"/>
-      <c r="L452" s="33"/>
-      <c r="M452" s="33"/>
-      <c r="N452" s="33"/>
-      <c r="O452" s="33"/>
-      <c r="P452" s="33"/>
-      <c r="Q452" s="33"/>
-      <c r="R452" s="33"/>
-      <c r="S452" s="33"/>
-      <c r="T452" s="33"/>
-      <c r="U452" s="33"/>
-      <c r="V452" s="33"/>
-      <c r="W452" s="33"/>
-      <c r="X452" s="33"/>
-      <c r="Y452" s="33"/>
+      <c r="E452" s="5"/>
+      <c r="F452" s="5"/>
+      <c r="G452" s="5"/>
+      <c r="H452" s="5"/>
+      <c r="I452" s="5"/>
+      <c r="J452" s="5"/>
+      <c r="K452" s="5"/>
+      <c r="L452" s="5"/>
+      <c r="M452" s="5"/>
+      <c r="N452" s="5"/>
+      <c r="O452" s="5"/>
+      <c r="P452" s="5"/>
+      <c r="Q452" s="5"/>
+      <c r="R452" s="5"/>
+      <c r="S452" s="5"/>
+      <c r="T452" s="5"/>
+      <c r="U452" s="5"/>
+      <c r="V452" s="5"/>
+      <c r="W452" s="5"/>
+      <c r="X452" s="5"/>
+      <c r="Y452" s="5"/>
       <c r="Z452" s="6"/>
     </row>
     <row r="453" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D453" s="4"/>
-      <c r="E453" s="33"/>
-      <c r="F453" s="33"/>
-      <c r="G453" s="33"/>
-      <c r="H453" s="33"/>
-      <c r="I453" s="33"/>
-      <c r="J453" s="33"/>
-      <c r="K453" s="33"/>
-      <c r="L453" s="33"/>
-      <c r="M453" s="33"/>
-      <c r="N453" s="33"/>
-      <c r="O453" s="33"/>
-      <c r="P453" s="33"/>
-      <c r="Q453" s="33"/>
-      <c r="R453" s="33"/>
-      <c r="S453" s="33"/>
-      <c r="T453" s="33"/>
-      <c r="U453" s="33"/>
-      <c r="V453" s="33"/>
-      <c r="W453" s="33"/>
-      <c r="X453" s="33"/>
-      <c r="Y453" s="33"/>
+      <c r="E453" s="5"/>
+      <c r="F453" s="5"/>
+      <c r="G453" s="5"/>
+      <c r="H453" s="5"/>
+      <c r="I453" s="5"/>
+      <c r="J453" s="5"/>
+      <c r="K453" s="5"/>
+      <c r="L453" s="5"/>
+      <c r="M453" s="5"/>
+      <c r="N453" s="5"/>
+      <c r="O453" s="5"/>
+      <c r="P453" s="5"/>
+      <c r="Q453" s="5"/>
+      <c r="R453" s="5"/>
+      <c r="S453" s="5"/>
+      <c r="T453" s="5"/>
+      <c r="U453" s="5"/>
+      <c r="V453" s="5"/>
+      <c r="W453" s="5"/>
+      <c r="X453" s="5"/>
+      <c r="Y453" s="5"/>
       <c r="Z453" s="6"/>
     </row>
     <row r="454" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D454" s="4"/>
-      <c r="E454" s="33"/>
-      <c r="F454" s="33"/>
-      <c r="G454" s="33"/>
-      <c r="H454" s="33"/>
-      <c r="I454" s="33"/>
-      <c r="J454" s="33"/>
-      <c r="K454" s="33"/>
-      <c r="L454" s="33"/>
-      <c r="M454" s="33"/>
-      <c r="N454" s="33"/>
-      <c r="O454" s="33"/>
-      <c r="P454" s="33"/>
-      <c r="Q454" s="33"/>
-      <c r="R454" s="33"/>
-      <c r="S454" s="33"/>
-      <c r="T454" s="33"/>
-      <c r="U454" s="33"/>
-      <c r="V454" s="33"/>
-      <c r="W454" s="33"/>
-      <c r="X454" s="33"/>
-      <c r="Y454" s="33"/>
+      <c r="E454" s="5"/>
+      <c r="F454" s="5"/>
+      <c r="G454" s="5"/>
+      <c r="H454" s="5"/>
+      <c r="I454" s="5"/>
+      <c r="J454" s="5"/>
+      <c r="K454" s="5"/>
+      <c r="L454" s="5"/>
+      <c r="M454" s="5"/>
+      <c r="N454" s="5"/>
+      <c r="O454" s="5"/>
+      <c r="P454" s="5"/>
+      <c r="Q454" s="5"/>
+      <c r="R454" s="5"/>
+      <c r="S454" s="5"/>
+      <c r="T454" s="5"/>
+      <c r="U454" s="5"/>
+      <c r="V454" s="5"/>
+      <c r="W454" s="5"/>
+      <c r="X454" s="5"/>
+      <c r="Y454" s="5"/>
       <c r="Z454" s="6"/>
     </row>
     <row r="455" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D455" s="4"/>
-      <c r="E455" s="33"/>
-      <c r="F455" s="33"/>
-      <c r="G455" s="33"/>
-      <c r="H455" s="33"/>
-      <c r="I455" s="33"/>
-      <c r="J455" s="33"/>
-      <c r="K455" s="33"/>
-      <c r="L455" s="33"/>
-      <c r="M455" s="33"/>
-      <c r="N455" s="33"/>
-      <c r="O455" s="33"/>
-      <c r="P455" s="33"/>
-      <c r="Q455" s="33"/>
-      <c r="R455" s="33"/>
-      <c r="S455" s="33"/>
-      <c r="T455" s="33"/>
-      <c r="U455" s="33"/>
-      <c r="V455" s="33"/>
-      <c r="W455" s="33"/>
-      <c r="X455" s="33"/>
-      <c r="Y455" s="33"/>
+      <c r="E455" s="5"/>
+      <c r="F455" s="5"/>
+      <c r="G455" s="5"/>
+      <c r="H455" s="5"/>
+      <c r="I455" s="5"/>
+      <c r="J455" s="5"/>
+      <c r="K455" s="5"/>
+      <c r="L455" s="5"/>
+      <c r="M455" s="5"/>
+      <c r="N455" s="5"/>
+      <c r="O455" s="5"/>
+      <c r="P455" s="5"/>
+      <c r="Q455" s="5"/>
+      <c r="R455" s="5"/>
+      <c r="S455" s="5"/>
+      <c r="T455" s="5"/>
+      <c r="U455" s="5"/>
+      <c r="V455" s="5"/>
+      <c r="W455" s="5"/>
+      <c r="X455" s="5"/>
+      <c r="Y455" s="5"/>
       <c r="Z455" s="6"/>
     </row>
     <row r="456" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D456" s="4"/>
-      <c r="E456" s="33"/>
-      <c r="F456" s="33"/>
-      <c r="G456" s="33"/>
-      <c r="H456" s="33"/>
-      <c r="I456" s="33"/>
-      <c r="J456" s="33"/>
-      <c r="K456" s="33"/>
-      <c r="L456" s="33"/>
-      <c r="M456" s="33"/>
-      <c r="N456" s="33"/>
-      <c r="O456" s="33"/>
-      <c r="P456" s="33"/>
-      <c r="Q456" s="33"/>
-      <c r="R456" s="33"/>
-      <c r="S456" s="33"/>
-      <c r="T456" s="33"/>
-      <c r="U456" s="33"/>
-      <c r="V456" s="33"/>
-      <c r="W456" s="33"/>
-      <c r="X456" s="33"/>
-      <c r="Y456" s="33"/>
+      <c r="E456" s="5"/>
+      <c r="F456" s="5"/>
+      <c r="G456" s="5"/>
+      <c r="H456" s="5"/>
+      <c r="I456" s="5"/>
+      <c r="J456" s="5"/>
+      <c r="K456" s="5"/>
+      <c r="L456" s="5"/>
+      <c r="M456" s="5"/>
+      <c r="N456" s="5"/>
+      <c r="O456" s="5"/>
+      <c r="P456" s="5"/>
+      <c r="Q456" s="5"/>
+      <c r="R456" s="5"/>
+      <c r="S456" s="5"/>
+      <c r="T456" s="5"/>
+      <c r="U456" s="5"/>
+      <c r="V456" s="5"/>
+      <c r="W456" s="5"/>
+      <c r="X456" s="5"/>
+      <c r="Y456" s="5"/>
       <c r="Z456" s="6"/>
     </row>
     <row r="457" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D457" s="4"/>
-      <c r="E457" s="33"/>
-      <c r="F457" s="33"/>
-      <c r="G457" s="33"/>
-      <c r="H457" s="33"/>
-      <c r="I457" s="33"/>
-      <c r="J457" s="33"/>
-      <c r="K457" s="33"/>
-      <c r="L457" s="33"/>
-      <c r="M457" s="33"/>
-      <c r="N457" s="33"/>
-      <c r="O457" s="33"/>
-      <c r="P457" s="33"/>
-      <c r="Q457" s="33"/>
-      <c r="R457" s="33"/>
-      <c r="S457" s="33"/>
-      <c r="T457" s="33"/>
-      <c r="U457" s="33"/>
-      <c r="V457" s="33"/>
-      <c r="W457" s="33"/>
-      <c r="X457" s="33"/>
-      <c r="Y457" s="33"/>
+      <c r="E457" s="5"/>
+      <c r="F457" s="5"/>
+      <c r="G457" s="5"/>
+      <c r="H457" s="5"/>
+      <c r="I457" s="5"/>
+      <c r="J457" s="5"/>
+      <c r="K457" s="5"/>
+      <c r="L457" s="5"/>
+      <c r="M457" s="5"/>
+      <c r="N457" s="5"/>
+      <c r="O457" s="5"/>
+      <c r="P457" s="5"/>
+      <c r="Q457" s="5"/>
+      <c r="R457" s="5"/>
+      <c r="S457" s="5"/>
+      <c r="T457" s="5"/>
+      <c r="U457" s="5"/>
+      <c r="V457" s="5"/>
+      <c r="W457" s="5"/>
+      <c r="X457" s="5"/>
+      <c r="Y457" s="5"/>
       <c r="Z457" s="6"/>
     </row>
     <row r="458" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D458" s="4"/>
-      <c r="E458" s="33"/>
-      <c r="F458" s="33"/>
-      <c r="G458" s="33"/>
-      <c r="H458" s="33"/>
-      <c r="I458" s="33"/>
-      <c r="J458" s="33"/>
-      <c r="K458" s="33"/>
-      <c r="L458" s="33"/>
-      <c r="M458" s="33"/>
-      <c r="N458" s="33"/>
-      <c r="O458" s="33"/>
-      <c r="P458" s="33"/>
-      <c r="Q458" s="33"/>
-      <c r="R458" s="33"/>
-      <c r="S458" s="33"/>
-      <c r="T458" s="33"/>
-      <c r="U458" s="33"/>
-      <c r="V458" s="33"/>
-      <c r="W458" s="33"/>
-      <c r="X458" s="33"/>
-      <c r="Y458" s="33"/>
+      <c r="E458" s="5"/>
+      <c r="F458" s="5"/>
+      <c r="G458" s="5"/>
+      <c r="H458" s="5"/>
+      <c r="I458" s="5"/>
+      <c r="J458" s="5"/>
+      <c r="K458" s="5"/>
+      <c r="L458" s="5"/>
+      <c r="M458" s="5"/>
+      <c r="N458" s="5"/>
+      <c r="O458" s="5"/>
+      <c r="P458" s="5"/>
+      <c r="Q458" s="5"/>
+      <c r="R458" s="5"/>
+      <c r="S458" s="5"/>
+      <c r="T458" s="5"/>
+      <c r="U458" s="5"/>
+      <c r="V458" s="5"/>
+      <c r="W458" s="5"/>
+      <c r="X458" s="5"/>
+      <c r="Y458" s="5"/>
       <c r="Z458" s="6"/>
     </row>
     <row r="459" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D459" s="4"/>
-      <c r="E459" s="33"/>
-      <c r="F459" s="33"/>
-      <c r="G459" s="33"/>
-      <c r="H459" s="33"/>
-      <c r="I459" s="33"/>
-      <c r="J459" s="33"/>
-      <c r="K459" s="33"/>
-      <c r="L459" s="33"/>
-      <c r="M459" s="33"/>
-      <c r="N459" s="33"/>
-      <c r="O459" s="33"/>
-      <c r="P459" s="33"/>
-      <c r="Q459" s="33"/>
-      <c r="R459" s="33"/>
-      <c r="S459" s="33"/>
-      <c r="T459" s="33"/>
-      <c r="U459" s="33"/>
-      <c r="V459" s="33"/>
-      <c r="W459" s="33"/>
-      <c r="X459" s="33"/>
-      <c r="Y459" s="33"/>
+      <c r="E459" s="5"/>
+      <c r="F459" s="5"/>
+      <c r="G459" s="5"/>
+      <c r="H459" s="5"/>
+      <c r="I459" s="5"/>
+      <c r="J459" s="5"/>
+      <c r="K459" s="5"/>
+      <c r="L459" s="5"/>
+      <c r="M459" s="5"/>
+      <c r="N459" s="5"/>
+      <c r="O459" s="5"/>
+      <c r="P459" s="5"/>
+      <c r="Q459" s="5"/>
+      <c r="R459" s="5"/>
+      <c r="S459" s="5"/>
+      <c r="T459" s="5"/>
+      <c r="U459" s="5"/>
+      <c r="V459" s="5"/>
+      <c r="W459" s="5"/>
+      <c r="X459" s="5"/>
+      <c r="Y459" s="5"/>
       <c r="Z459" s="6"/>
     </row>
     <row r="460" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D460" s="4"/>
-      <c r="E460" s="33"/>
-      <c r="F460" s="33"/>
-      <c r="G460" s="33"/>
-      <c r="H460" s="33"/>
-      <c r="I460" s="33"/>
-      <c r="J460" s="33"/>
-      <c r="K460" s="33"/>
-      <c r="L460" s="33"/>
-      <c r="M460" s="33"/>
-      <c r="N460" s="33"/>
-      <c r="O460" s="33"/>
-      <c r="P460" s="33"/>
-      <c r="Q460" s="33"/>
-      <c r="R460" s="33"/>
-      <c r="S460" s="33"/>
-      <c r="T460" s="33"/>
-      <c r="U460" s="33"/>
-      <c r="V460" s="33"/>
-      <c r="W460" s="33"/>
-      <c r="X460" s="33"/>
-      <c r="Y460" s="33"/>
+      <c r="E460" s="5"/>
+      <c r="F460" s="5"/>
+      <c r="G460" s="5"/>
+      <c r="H460" s="5"/>
+      <c r="I460" s="5"/>
+      <c r="J460" s="5"/>
+      <c r="K460" s="5"/>
+      <c r="L460" s="5"/>
+      <c r="M460" s="5"/>
+      <c r="N460" s="5"/>
+      <c r="O460" s="5"/>
+      <c r="P460" s="5"/>
+      <c r="Q460" s="5"/>
+      <c r="R460" s="5"/>
+      <c r="S460" s="5"/>
+      <c r="T460" s="5"/>
+      <c r="U460" s="5"/>
+      <c r="V460" s="5"/>
+      <c r="W460" s="5"/>
+      <c r="X460" s="5"/>
+      <c r="Y460" s="5"/>
       <c r="Z460" s="6"/>
     </row>
     <row r="461" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D461" s="4"/>
-      <c r="E461" s="33"/>
-      <c r="F461" s="33"/>
-      <c r="G461" s="33"/>
-      <c r="H461" s="33"/>
-      <c r="I461" s="33"/>
-      <c r="J461" s="33"/>
-      <c r="K461" s="33"/>
-      <c r="L461" s="33"/>
-      <c r="M461" s="33"/>
-      <c r="N461" s="33"/>
-      <c r="O461" s="33"/>
-      <c r="P461" s="33"/>
-      <c r="Q461" s="33"/>
-      <c r="R461" s="33"/>
-      <c r="S461" s="33"/>
-      <c r="T461" s="33"/>
-      <c r="U461" s="33"/>
-      <c r="V461" s="33"/>
-      <c r="W461" s="33"/>
-      <c r="X461" s="33"/>
-      <c r="Y461" s="33"/>
+      <c r="E461" s="5"/>
+      <c r="F461" s="5"/>
+      <c r="G461" s="5"/>
+      <c r="H461" s="5"/>
+      <c r="I461" s="5"/>
+      <c r="J461" s="5"/>
+      <c r="K461" s="5"/>
+      <c r="L461" s="5"/>
+      <c r="M461" s="5"/>
+      <c r="N461" s="5"/>
+      <c r="O461" s="5"/>
+      <c r="P461" s="5"/>
+      <c r="Q461" s="5"/>
+      <c r="R461" s="5"/>
+      <c r="S461" s="5"/>
+      <c r="T461" s="5"/>
+      <c r="U461" s="5"/>
+      <c r="V461" s="5"/>
+      <c r="W461" s="5"/>
+      <c r="X461" s="5"/>
+      <c r="Y461" s="5"/>
       <c r="Z461" s="6"/>
     </row>
     <row r="462" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D462" s="4"/>
-      <c r="E462" s="33"/>
-      <c r="F462" s="33"/>
-      <c r="G462" s="33"/>
-      <c r="H462" s="33"/>
-      <c r="I462" s="33"/>
-      <c r="J462" s="33"/>
-      <c r="K462" s="33"/>
-      <c r="L462" s="33"/>
-      <c r="M462" s="33"/>
-      <c r="N462" s="33"/>
-      <c r="O462" s="33"/>
-      <c r="P462" s="33"/>
-      <c r="Q462" s="33"/>
-      <c r="R462" s="33"/>
-      <c r="S462" s="33"/>
-      <c r="T462" s="33"/>
-      <c r="U462" s="33"/>
-      <c r="V462" s="33"/>
-      <c r="W462" s="33"/>
-      <c r="X462" s="33"/>
-      <c r="Y462" s="33"/>
+      <c r="E462" s="5"/>
+      <c r="F462" s="5"/>
+      <c r="G462" s="5"/>
+      <c r="H462" s="5"/>
+      <c r="I462" s="5"/>
+      <c r="J462" s="5"/>
+      <c r="K462" s="5"/>
+      <c r="L462" s="5"/>
+      <c r="M462" s="5"/>
+      <c r="N462" s="5"/>
+      <c r="O462" s="5"/>
+      <c r="P462" s="5"/>
+      <c r="Q462" s="5"/>
+      <c r="R462" s="5"/>
+      <c r="S462" s="5"/>
+      <c r="T462" s="5"/>
+      <c r="U462" s="5"/>
+      <c r="V462" s="5"/>
+      <c r="W462" s="5"/>
+      <c r="X462" s="5"/>
+      <c r="Y462" s="5"/>
       <c r="Z462" s="6"/>
     </row>
     <row r="463" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D463" s="4"/>
-      <c r="E463" s="33"/>
-      <c r="F463" s="33"/>
-      <c r="G463" s="33"/>
-      <c r="H463" s="33"/>
-      <c r="I463" s="33"/>
-      <c r="J463" s="33"/>
-      <c r="K463" s="33"/>
-      <c r="L463" s="33"/>
-      <c r="M463" s="33"/>
-      <c r="N463" s="33"/>
-      <c r="O463" s="33"/>
-      <c r="P463" s="33"/>
-      <c r="Q463" s="33"/>
-      <c r="R463" s="33"/>
-      <c r="S463" s="33"/>
-      <c r="T463" s="33"/>
-      <c r="U463" s="33"/>
-      <c r="V463" s="33"/>
-      <c r="W463" s="33"/>
-      <c r="X463" s="33"/>
-      <c r="Y463" s="33"/>
+      <c r="E463" s="5"/>
+      <c r="F463" s="5"/>
+      <c r="G463" s="5"/>
+      <c r="H463" s="5"/>
+      <c r="I463" s="5"/>
+      <c r="J463" s="5"/>
+      <c r="K463" s="5"/>
+      <c r="L463" s="5"/>
+      <c r="M463" s="5"/>
+      <c r="N463" s="5"/>
+      <c r="O463" s="5"/>
+      <c r="P463" s="5"/>
+      <c r="Q463" s="5"/>
+      <c r="R463" s="5"/>
+      <c r="S463" s="5"/>
+      <c r="T463" s="5"/>
+      <c r="U463" s="5"/>
+      <c r="V463" s="5"/>
+      <c r="W463" s="5"/>
+      <c r="X463" s="5"/>
+      <c r="Y463" s="5"/>
       <c r="Z463" s="6"/>
     </row>
     <row r="464" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D464" s="4"/>
-      <c r="E464" s="33"/>
-      <c r="F464" s="33"/>
-      <c r="G464" s="33"/>
-      <c r="H464" s="33"/>
-      <c r="I464" s="33"/>
-      <c r="J464" s="33"/>
-      <c r="K464" s="33"/>
-      <c r="L464" s="33"/>
-      <c r="M464" s="33"/>
-      <c r="N464" s="33"/>
-      <c r="O464" s="33"/>
-      <c r="P464" s="33"/>
-      <c r="Q464" s="33"/>
-      <c r="R464" s="33"/>
-      <c r="S464" s="33"/>
-      <c r="T464" s="33"/>
-      <c r="U464" s="33"/>
-      <c r="V464" s="33"/>
-      <c r="W464" s="33"/>
-      <c r="X464" s="33"/>
-      <c r="Y464" s="33"/>
+      <c r="E464" s="5"/>
+      <c r="F464" s="5"/>
+      <c r="G464" s="5"/>
+      <c r="H464" s="5"/>
+      <c r="I464" s="5"/>
+      <c r="J464" s="5"/>
+      <c r="K464" s="5"/>
+      <c r="L464" s="5"/>
+      <c r="M464" s="5"/>
+      <c r="N464" s="5"/>
+      <c r="O464" s="5"/>
+      <c r="P464" s="5"/>
+      <c r="Q464" s="5"/>
+      <c r="R464" s="5"/>
+      <c r="S464" s="5"/>
+      <c r="T464" s="5"/>
+      <c r="U464" s="5"/>
+      <c r="V464" s="5"/>
+      <c r="W464" s="5"/>
+      <c r="X464" s="5"/>
+      <c r="Y464" s="5"/>
       <c r="Z464" s="6"/>
     </row>
     <row r="465" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D465" s="34"/>
-      <c r="E465" s="35"/>
-      <c r="F465" s="35"/>
-      <c r="G465" s="35"/>
-      <c r="H465" s="35"/>
-      <c r="I465" s="35"/>
-      <c r="J465" s="35"/>
-      <c r="K465" s="35"/>
-      <c r="L465" s="35"/>
-      <c r="M465" s="35"/>
-      <c r="N465" s="35"/>
-      <c r="O465" s="35"/>
-      <c r="P465" s="35"/>
-      <c r="Q465" s="35"/>
-      <c r="R465" s="35"/>
-      <c r="S465" s="35"/>
-      <c r="T465" s="35"/>
-      <c r="U465" s="35"/>
-      <c r="V465" s="35"/>
-      <c r="W465" s="35"/>
-      <c r="X465" s="35"/>
-      <c r="Y465" s="35"/>
-      <c r="Z465" s="36"/>
+      <c r="D465" s="33"/>
+      <c r="E465" s="34"/>
+      <c r="F465" s="34"/>
+      <c r="G465" s="34"/>
+      <c r="H465" s="34"/>
+      <c r="I465" s="34"/>
+      <c r="J465" s="34"/>
+      <c r="K465" s="34"/>
+      <c r="L465" s="34"/>
+      <c r="M465" s="34"/>
+      <c r="N465" s="34"/>
+      <c r="O465" s="34"/>
+      <c r="P465" s="34"/>
+      <c r="Q465" s="34"/>
+      <c r="R465" s="34"/>
+      <c r="S465" s="34"/>
+      <c r="T465" s="34"/>
+      <c r="U465" s="34"/>
+      <c r="V465" s="34"/>
+      <c r="W465" s="34"/>
+      <c r="X465" s="34"/>
+      <c r="Y465" s="34"/>
+      <c r="Z465" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
